--- a/NewBalance.xlsx
+++ b/NewBalance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylemortenson/Desktop/QMBE_1320_Kyle_Mortenson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F43CAC-D70B-6046-A179-896D890E8FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0A0038-48DD-DC41-9B6C-6A4C85D44E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15900" yWindow="600" windowWidth="12880" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -226,16 +226,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,14 +518,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
